--- a/trunk/Últimas 4 semanas.xlsx
+++ b/trunk/Últimas 4 semanas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="18780" windowHeight="8580" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="18780" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="Tiempos" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="76">
   <si>
     <t>Lunes 6</t>
   </si>
@@ -170,9 +170,6 @@
     <t>ITIL</t>
   </si>
   <si>
-    <t>jmbc</t>
-  </si>
-  <si>
     <t>congrego</t>
   </si>
   <si>
@@ -237,6 +234,15 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>JMBC</t>
+  </si>
+  <si>
+    <t>Trabajo ITIL</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -260,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,12 +281,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -373,8 +397,98 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -387,7 +501,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -396,11 +510,37 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -409,25 +549,8 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -437,103 +560,17 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -549,7 +586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -561,34 +598,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -597,35 +616,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -929,7 +1008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -947,169 +1026,169 @@
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="10"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="21"/>
     </row>
     <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="14" t="s">
+      <c r="W3" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="X3" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Y3" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="Z3" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AA3" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AB3" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="AC3" s="7" t="s">
+      <c r="AC3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="AD3" s="14" t="s">
+      <c r="AD3" s="38" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="12"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="12"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="6"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="12"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="7"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
-      <c r="AD4" s="16"/>
+      <c r="AD4" s="8"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1124,13 +1203,9 @@
       <c r="G5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" s="12" t="s">
+      <c r="H5" s="23"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="7" t="s">
         <v>45</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -1145,13 +1220,9 @@
       <c r="N5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="P5" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q5" s="12" t="s">
+      <c r="O5" s="23"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="6" t="s">
         <v>45</v>
       </c>
       <c r="R5" s="4" t="s">
@@ -1166,13 +1237,9 @@
       <c r="U5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="V5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W5" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="X5" s="12" t="s">
+      <c r="V5" s="23"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Y5" s="4" t="s">
@@ -1187,18 +1254,14 @@
       <c r="AB5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AC5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD5" s="17" t="s">
-        <v>73</v>
-      </c>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="22"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1213,13 +1276,13 @@
       <c r="G6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="12" t="s">
+      <c r="H6" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>45</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -1234,13 +1297,13 @@
       <c r="N6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="P6" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q6" s="12" t="s">
+      <c r="O6" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="6" t="s">
         <v>45</v>
       </c>
       <c r="R6" s="4" t="s">
@@ -1255,13 +1318,13 @@
       <c r="U6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="V6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W6" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="X6" s="12" t="s">
+      <c r="V6" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="W6" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="X6" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Y6" s="4" t="s">
@@ -1276,18 +1339,18 @@
       <c r="AB6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AC6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD6" s="17" t="s">
-        <v>73</v>
+      <c r="AC6" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD6" s="41" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1302,13 +1365,13 @@
       <c r="G7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="12" t="s">
+      <c r="H7" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>45</v>
       </c>
       <c r="K7" s="4" t="s">
@@ -1323,13 +1386,13 @@
       <c r="N7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O7" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="P7" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q7" s="12" t="s">
+      <c r="O7" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="6" t="s">
         <v>45</v>
       </c>
       <c r="R7" s="4" t="s">
@@ -1344,13 +1407,13 @@
       <c r="U7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="V7" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W7" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="X7" s="12" t="s">
+      <c r="V7" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="W7" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="X7" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Y7" s="4" t="s">
@@ -1365,18 +1428,18 @@
       <c r="AB7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AC7" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD7" s="17" t="s">
-        <v>73</v>
+      <c r="AC7" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD7" s="41" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1391,13 +1454,13 @@
       <c r="G8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="12" t="s">
+      <c r="H8" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>45</v>
       </c>
       <c r="K8" s="4" t="s">
@@ -1412,13 +1475,13 @@
       <c r="N8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="P8" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q8" s="12" t="s">
+      <c r="O8" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="6" t="s">
         <v>45</v>
       </c>
       <c r="R8" s="4" t="s">
@@ -1433,13 +1496,13 @@
       <c r="U8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="V8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W8" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="X8" s="12" t="s">
+      <c r="V8" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="W8" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="X8" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Y8" s="4" t="s">
@@ -1454,18 +1517,18 @@
       <c r="AB8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AC8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD8" s="17" t="s">
-        <v>73</v>
+      <c r="AC8" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD8" s="41" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1480,13 +1543,13 @@
       <c r="G9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" s="12" t="s">
+      <c r="H9" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>45</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -1501,13 +1564,13 @@
       <c r="N9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="P9" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" s="12" t="s">
+      <c r="O9" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="6" t="s">
         <v>45</v>
       </c>
       <c r="R9" s="4" t="s">
@@ -1522,13 +1585,13 @@
       <c r="U9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="V9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W9" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="X9" s="12" t="s">
+      <c r="V9" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="W9" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="X9" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Y9" s="4" t="s">
@@ -1543,18 +1606,18 @@
       <c r="AB9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AC9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD9" s="17" t="s">
-        <v>73</v>
+      <c r="AC9" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD9" s="41" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1569,13 +1632,13 @@
       <c r="G10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="12" t="s">
+      <c r="H10" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>45</v>
       </c>
       <c r="K10" s="4" t="s">
@@ -1590,13 +1653,13 @@
       <c r="N10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="P10" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q10" s="12" t="s">
+      <c r="O10" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="R10" s="4" t="s">
@@ -1611,13 +1674,13 @@
       <c r="U10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="V10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W10" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="X10" s="12" t="s">
+      <c r="V10" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="W10" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="X10" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Y10" s="4" t="s">
@@ -1632,18 +1695,18 @@
       <c r="AB10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AC10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD10" s="17" t="s">
-        <v>73</v>
+      <c r="AC10" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD10" s="41" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1659,10 +1722,8 @@
         <v>45</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" s="12" t="s">
+      <c r="I11" s="32"/>
+      <c r="J11" s="7" t="s">
         <v>45</v>
       </c>
       <c r="K11" s="4" t="s">
@@ -1678,10 +1739,8 @@
         <v>45</v>
       </c>
       <c r="O11" s="4"/>
-      <c r="P11" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q11" s="12" t="s">
+      <c r="P11" s="22"/>
+      <c r="Q11" s="6" t="s">
         <v>45</v>
       </c>
       <c r="R11" s="4" t="s">
@@ -1697,10 +1756,8 @@
         <v>45</v>
       </c>
       <c r="V11" s="4"/>
-      <c r="W11" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="X11" s="12" t="s">
+      <c r="W11" s="22"/>
+      <c r="X11" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Y11" s="4" t="s">
@@ -1716,15 +1773,13 @@
         <v>45</v>
       </c>
       <c r="AC11" s="4"/>
-      <c r="AD11" s="17" t="s">
-        <v>73</v>
-      </c>
+      <c r="AD11" s="22"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="4" t="s">
         <v>45</v>
       </c>
@@ -1735,13 +1790,13 @@
       <c r="G12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" s="12"/>
+      <c r="I12" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="7"/>
       <c r="K12" s="4" t="s">
         <v>45</v>
       </c>
@@ -1752,13 +1807,13 @@
       <c r="N12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="P12" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q12" s="12"/>
+      <c r="P12" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q12" s="6"/>
       <c r="R12" s="4" t="s">
         <v>45</v>
       </c>
@@ -1769,13 +1824,13 @@
       <c r="U12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="V12" s="4" t="s">
+      <c r="V12" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="W12" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="X12" s="12"/>
+      <c r="W12" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="X12" s="7"/>
       <c r="Y12" s="4" t="s">
         <v>45</v>
       </c>
@@ -1786,22 +1841,22 @@
       <c r="AB12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AC12" s="4" t="s">
+      <c r="AC12" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="AD12" s="17" t="s">
-        <v>73</v>
+      <c r="AD12" s="41" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="27" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="26" t="s">
         <v>46</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -1810,15 +1865,15 @@
       <c r="G13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="12" t="s">
+      <c r="I13" s="31"/>
+      <c r="J13" s="27" t="s">
         <v>46</v>
       </c>
       <c r="K13" s="4"/>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="26" t="s">
         <v>46</v>
       </c>
       <c r="M13" s="4" t="s">
@@ -1827,15 +1882,15 @@
       <c r="N13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="12" t="s">
+      <c r="P13" s="8"/>
+      <c r="Q13" s="28" t="s">
         <v>46</v>
       </c>
       <c r="R13" s="4"/>
-      <c r="S13" s="4" t="s">
+      <c r="S13" s="26" t="s">
         <v>46</v>
       </c>
       <c r="T13" s="4" t="s">
@@ -1844,15 +1899,15 @@
       <c r="U13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="V13" s="4" t="s">
+      <c r="V13" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="W13" s="16"/>
-      <c r="X13" s="12" t="s">
+      <c r="W13" s="8"/>
+      <c r="X13" s="27" t="s">
         <v>46</v>
       </c>
       <c r="Y13" s="4"/>
-      <c r="Z13" s="4" t="s">
+      <c r="Z13" s="26" t="s">
         <v>46</v>
       </c>
       <c r="AA13" s="4" t="s">
@@ -1861,614 +1916,578 @@
       <c r="AB13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AC13" s="4" t="s">
+      <c r="AC13" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="AD13" s="16"/>
+      <c r="AD13" s="8"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="26" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="12" t="s">
+      <c r="I14" s="31"/>
+      <c r="J14" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14" s="4" t="s">
+      <c r="K14" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="26" t="s">
         <v>46</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="12" t="s">
+      <c r="P14" s="8"/>
+      <c r="Q14" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="R14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="S14" s="4" t="s">
+      <c r="R14" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="S14" s="26" t="s">
         <v>46</v>
       </c>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="4" t="s">
+      <c r="V14" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="W14" s="16"/>
-      <c r="X14" s="12" t="s">
+      <c r="W14" s="8"/>
+      <c r="X14" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="Y14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z14" s="4" t="s">
+      <c r="Y14" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z14" s="26" t="s">
         <v>46</v>
       </c>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
-      <c r="AC14" s="4" t="s">
+      <c r="AC14" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="AD14" s="16"/>
+      <c r="AD14" s="8"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="I15" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="K15" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="Q15" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="R15" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="S15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="T15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="U15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="X15" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="Y15" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="L15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O15" s="4" t="s">
+      <c r="AD15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="16" t="s">
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Q15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="R15" s="5" t="s">
+      <c r="G16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="S15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="V15" s="4" t="s">
+      <c r="I16" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="W15" s="16" t="s">
+      <c r="J16" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="X15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y15" s="5" t="s">
+      <c r="N16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Z15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC15" s="4" t="s">
+      <c r="P16" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AD15" s="16" t="s">
+      <c r="Q16" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="R16" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="S16" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="T16" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B16" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="15" t="s">
+      <c r="U16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="X16" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="Y16" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="Z16" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="AA16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD16" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16" s="4" t="s">
+    </row>
+    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="L16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P16" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="V16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="W16" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="X16" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD16" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B17" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="26" t="s">
         <v>49</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17" s="4" t="s">
+      <c r="K17" s="25"/>
+      <c r="L17" s="26" t="s">
         <v>49</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="P17" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q17" s="12" t="s">
+      <c r="Q17" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="R17" s="4" t="s">
+      <c r="R17" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="S17" s="4" t="s">
+      <c r="S17" s="26" t="s">
         <v>49</v>
       </c>
       <c r="T17" s="4"/>
       <c r="U17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="W17" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="X17" s="12" t="s">
+      <c r="X17" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="Y17" s="4" t="s">
+      <c r="Y17" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="Z17" s="4" t="s">
+      <c r="Z17" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AA17" s="4"/>
       <c r="AB17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AD17" s="16" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="18" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="24"/>
+      <c r="D18" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>73</v>
+      <c r="F18" s="39" t="s">
+        <v>72</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="12" t="s">
+      <c r="I18" s="31"/>
+      <c r="J18" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L18" s="4" t="s">
+      <c r="K18" s="25"/>
+      <c r="L18" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="M18" s="5" t="s">
-        <v>73</v>
+      <c r="M18" s="39" t="s">
+        <v>72</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="12" t="s">
+      <c r="P18" s="8"/>
+      <c r="Q18" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="R18" s="4" t="s">
+      <c r="R18" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="S18" s="4" t="s">
+      <c r="S18" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="T18" s="5" t="s">
-        <v>73</v>
+      <c r="T18" s="39" t="s">
+        <v>72</v>
       </c>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="12" t="s">
+      <c r="W18" s="8"/>
+      <c r="X18" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="Y18" s="4" t="s">
+      <c r="Y18" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="Z18" s="4" t="s">
+      <c r="Z18" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="AA18" s="5" t="s">
-        <v>73</v>
+      <c r="AA18" s="39" t="s">
+        <v>72</v>
       </c>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
-      <c r="AD18" s="16"/>
+      <c r="AD18" s="8"/>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" s="12"/>
+      <c r="F19" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="7"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="P19" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q19" s="12"/>
+      <c r="M19" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="6"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="V19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W19" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="X19" s="12"/>
+      <c r="T19" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="7"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
-      <c r="AA19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD19" s="17" t="s">
-        <v>73</v>
-      </c>
+      <c r="AA19" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="35"/>
     </row>
     <row r="20" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="19"/>
-      <c r="AD20" s="20"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="11"/>
     </row>
     <row r="21" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="3">
-        <f>COUNTIF(C4:C20,"X")</f>
+      <c r="C21" s="2">
+        <f t="shared" ref="C21:AD21" si="0">COUNTIF(C4:C20,"X")</f>
         <v>0</v>
       </c>
-      <c r="D21" s="3">
-        <f>COUNTIF(D4:D20,"X")</f>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E21" s="3">
-        <f>COUNTIF(E4:E20,"X")</f>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="3">
-        <f>COUNTIF(F4:F20,"X")</f>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G21" s="3">
-        <f>COUNTIF(G4:G20,"X")</f>
-        <v>1</v>
-      </c>
-      <c r="H21" s="3">
-        <f>COUNTIF(H4:H20,"X")</f>
-        <v>7</v>
-      </c>
-      <c r="I21" s="3">
-        <f>COUNTIF(I4:I20,"X")</f>
-        <v>9</v>
-      </c>
-      <c r="J21" s="3">
-        <f>COUNTIF(J4:J20,"X")</f>
+      <c r="G21" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K21" s="3">
-        <f>COUNTIF(K4:K20,"X")</f>
+      <c r="H21" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L21" s="3">
-        <f>COUNTIF(L4:L20,"X")</f>
+      <c r="N21" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M21" s="3">
-        <f>COUNTIF(M4:M20,"X")</f>
+      <c r="O21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="2">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N21" s="3">
-        <f>COUNTIF(N4:N20,"X")</f>
-        <v>1</v>
-      </c>
-      <c r="O21" s="3">
-        <f>COUNTIF(O4:O20,"X")</f>
-        <v>7</v>
-      </c>
-      <c r="P21" s="3">
-        <f>COUNTIF(P4:P20,"X")</f>
-        <v>9</v>
-      </c>
-      <c r="Q21" s="3">
-        <f>COUNTIF(Q4:Q20,"X")</f>
+      <c r="S21" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R21" s="3">
-        <f>COUNTIF(R4:R20,"X")</f>
+      <c r="T21" s="2">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="S21" s="3">
-        <f>COUNTIF(S4:S20,"X")</f>
+      <c r="U21" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T21" s="3">
-        <f>COUNTIF(T4:T20,"X")</f>
+      <c r="V21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="X21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="2">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="U21" s="3">
-        <f>COUNTIF(U4:U20,"X")</f>
-        <v>1</v>
-      </c>
-      <c r="V21" s="3">
-        <f>COUNTIF(V4:V20,"X")</f>
-        <v>7</v>
-      </c>
-      <c r="W21" s="3">
-        <f>COUNTIF(W4:W20,"X")</f>
-        <v>9</v>
-      </c>
-      <c r="X21" s="3">
-        <f>COUNTIF(X4:X20,"X")</f>
+      <c r="Z21" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="3">
-        <f>COUNTIF(Y4:Y20,"X")</f>
+      <c r="AA21" s="2">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Z21" s="3">
-        <f>COUNTIF(Z4:Z20,"X")</f>
+      <c r="AB21" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA21" s="3">
-        <f>COUNTIF(AA4:AA20,"X")</f>
-        <v>2</v>
-      </c>
-      <c r="AB21" s="3">
-        <f>COUNTIF(AB4:AB20,"X")</f>
-        <v>1</v>
-      </c>
-      <c r="AC21" s="3">
-        <f>COUNTIF(AC4:AC20,"X")</f>
-        <v>7</v>
-      </c>
-      <c r="AD21" s="3">
-        <f>COUNTIF(AD4:AD20,"X")</f>
-        <v>9</v>
-      </c>
-      <c r="AE21" s="6">
+      <c r="AC21" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AD21" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AE21" s="5">
         <f>SUM(C21:AD21)</f>
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2487,8 +2506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2501,20 +2520,20 @@
   <sheetData>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="26">
+      <c r="C4" s="17">
         <f>Tiempos!AE21</f>
-        <v>84</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>58</v>
+        <v>48</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -2522,10 +2541,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -2533,10 +2552,10 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -2544,10 +2563,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -2555,10 +2574,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -2566,10 +2585,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
@@ -2577,10 +2596,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -2588,10 +2607,10 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -2599,10 +2618,10 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
@@ -2610,10 +2629,10 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -2621,10 +2640,10 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">

--- a/trunk/Últimas 4 semanas.xlsx
+++ b/trunk/Últimas 4 semanas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="75">
   <si>
     <t>Lunes 6</t>
   </si>
@@ -240,9 +240,6 @@
   </si>
   <si>
     <t>Trabajo ITIL</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
@@ -586,9 +583,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -636,6 +632,63 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -645,64 +698,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1010,1484 +1006,1482 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="3"/>
-    <col min="2" max="2" width="11.42578125" style="2"/>
-    <col min="3" max="11" width="11.42578125" style="3"/>
-    <col min="12" max="12" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="11.42578125" style="3"/>
-    <col min="19" max="19" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="11" width="11.42578125" style="2"/>
+    <col min="12" max="12" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="11.42578125" style="2"/>
+    <col min="19" max="19" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="19" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="20" t="s">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="19" t="s">
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="21"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="39"/>
     </row>
     <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="36" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="37" t="s">
+      <c r="N3" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="37" t="s">
+      <c r="O3" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="P3" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="36" t="s">
+      <c r="Q3" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="37" t="s">
+      <c r="R3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="37" t="s">
+      <c r="S3" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="37" t="s">
+      <c r="T3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="U3" s="37" t="s">
+      <c r="U3" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="37" t="s">
+      <c r="V3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="38" t="s">
+      <c r="W3" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="X3" s="36" t="s">
+      <c r="X3" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="Y3" s="37" t="s">
+      <c r="Y3" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="Z3" s="37" t="s">
+      <c r="Z3" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AA3" s="37" t="s">
+      <c r="AA3" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AB3" s="37" t="s">
+      <c r="AB3" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="AC3" s="37" t="s">
+      <c r="AC3" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="AD3" s="38" t="s">
+      <c r="AD3" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="8"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="7"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="23"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V5" s="23"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="22"/>
+      <c r="C5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="19"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" s="19"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="18"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="30" t="s">
+      <c r="C6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="P6" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V6" s="30" t="s">
+      <c r="P6" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V6" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="W6" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="X6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC6" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD6" s="41" t="s">
+      <c r="W6" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC6" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD6" s="36" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="30" t="s">
+      <c r="C7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="P7" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V7" s="30" t="s">
+      <c r="P7" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V7" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="W7" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="X7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC7" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD7" s="41" t="s">
+      <c r="W7" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC7" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD7" s="36" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" s="30" t="s">
+      <c r="C8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="P8" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V8" s="30" t="s">
+      <c r="P8" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V8" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="W8" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="X8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC8" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD8" s="41" t="s">
+      <c r="W8" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC8" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD8" s="36" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" s="30" t="s">
+      <c r="C9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="P9" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V9" s="30" t="s">
+      <c r="P9" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V9" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="W9" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="X9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC9" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD9" s="41" t="s">
+      <c r="W9" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC9" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD9" s="36" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="30" t="s">
+      <c r="C10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="P10" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V10" s="30" t="s">
+      <c r="P10" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V10" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="W10" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="X10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC10" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD10" s="41" t="s">
+      <c r="W10" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC10" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD10" s="36" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V11" s="4"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="22"/>
+      <c r="C11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V11" s="3"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="18"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="26" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O12" s="26" t="s">
+      <c r="I12" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="P12" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V12" s="26" t="s">
+      <c r="P12" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V12" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="W12" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC12" s="26" t="s">
+      <c r="W12" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC12" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="AD12" s="41" t="s">
+      <c r="AD12" s="36" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="26" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="26" t="s">
+      <c r="F13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="27" t="s">
+      <c r="I13" s="26"/>
+      <c r="J13" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="26" t="s">
+      <c r="K13" s="3"/>
+      <c r="L13" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O13" s="26" t="s">
+      <c r="M13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="28" t="s">
+      <c r="P13" s="7"/>
+      <c r="Q13" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="R13" s="4"/>
-      <c r="S13" s="26" t="s">
+      <c r="R13" s="3"/>
+      <c r="S13" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="T13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V13" s="26" t="s">
+      <c r="T13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V13" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="W13" s="8"/>
-      <c r="X13" s="27" t="s">
+      <c r="W13" s="7"/>
+      <c r="X13" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="26" t="s">
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="AA13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC13" s="26" t="s">
+      <c r="AA13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC13" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="AD13" s="8"/>
+      <c r="AD13" s="7"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="26" t="s">
+      <c r="D14" s="40"/>
+      <c r="E14" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="26" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="27" t="s">
+      <c r="I14" s="26"/>
+      <c r="J14" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="26" t="s">
+      <c r="K14" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="26" t="s">
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="28" t="s">
+      <c r="P14" s="7"/>
+      <c r="Q14" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="R14" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="S14" s="26" t="s">
+      <c r="R14" s="40"/>
+      <c r="S14" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="26" t="s">
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="W14" s="8"/>
-      <c r="X14" s="27" t="s">
+      <c r="W14" s="7"/>
+      <c r="X14" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="Y14" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z14" s="26" t="s">
+      <c r="Y14" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z14" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="26" t="s">
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="AD14" s="8"/>
+      <c r="AD14" s="7"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="26" t="s">
+      <c r="D15" s="40"/>
+      <c r="E15" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="L15" s="26" t="s">
+      <c r="K15" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="O15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="P15" s="8" t="s">
+      <c r="P15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q15" s="28" t="s">
+      <c r="Q15" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="R15" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="S15" s="26" t="s">
+      <c r="R15" s="40"/>
+      <c r="S15" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="T15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="U15" s="4" t="s">
+      <c r="U15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="V15" s="4" t="s">
+      <c r="V15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="W15" s="8" t="s">
+      <c r="W15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X15" s="27" t="s">
+      <c r="X15" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="Y15" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z15" s="26" t="s">
+      <c r="Y15" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z15" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="AA15" s="4" t="s">
+      <c r="AA15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AB15" s="4" t="s">
+      <c r="AB15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AC15" s="4" t="s">
+      <c r="AC15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AD15" s="8" t="s">
+      <c r="AD15" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="26" t="s">
+      <c r="C16" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26" t="s">
+      <c r="K16" s="20"/>
+      <c r="L16" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="O16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="P16" s="8" t="s">
+      <c r="P16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q16" s="28" t="s">
+      <c r="Q16" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="R16" s="26" t="s">
+      <c r="R16" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="S16" s="26" t="s">
+      <c r="S16" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="T16" s="4" t="s">
+      <c r="T16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="U16" s="4" t="s">
+      <c r="U16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="V16" s="4" t="s">
+      <c r="V16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="W16" s="8" t="s">
+      <c r="W16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X16" s="27" t="s">
+      <c r="X16" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="Y16" s="26" t="s">
+      <c r="Y16" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="Z16" s="26" t="s">
+      <c r="Z16" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="AA16" s="4" t="s">
+      <c r="AA16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AB16" s="4" t="s">
+      <c r="AB16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AC16" s="4" t="s">
+      <c r="AC16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AD16" s="8" t="s">
+      <c r="AD16" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="26" t="s">
+      <c r="C17" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I17" s="31" t="s">
+      <c r="I17" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="J17" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26" t="s">
+      <c r="K17" s="20"/>
+      <c r="L17" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4" t="s">
+      <c r="M17" s="3"/>
+      <c r="N17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="O17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="P17" s="8" t="s">
+      <c r="P17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q17" s="28" t="s">
+      <c r="Q17" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="R17" s="26" t="s">
+      <c r="R17" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="S17" s="26" t="s">
+      <c r="S17" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4" t="s">
+      <c r="T17" s="3"/>
+      <c r="U17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="V17" s="4" t="s">
+      <c r="V17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="W17" s="8" t="s">
+      <c r="W17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X17" s="27" t="s">
+      <c r="X17" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="Y17" s="26" t="s">
+      <c r="Y17" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="Z17" s="26" t="s">
+      <c r="Z17" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4" t="s">
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AC17" s="4" t="s">
+      <c r="AC17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AD17" s="8" t="s">
+      <c r="AD17" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="26" t="s">
+      <c r="C18" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="27" t="s">
+      <c r="F18" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26" t="s">
+      <c r="K18" s="20"/>
+      <c r="L18" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="M18" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="28" t="s">
+      <c r="M18" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="R18" s="26" t="s">
+      <c r="R18" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="S18" s="26" t="s">
+      <c r="S18" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="T18" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="27" t="s">
+      <c r="T18" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="Y18" s="26" t="s">
+      <c r="Y18" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="Z18" s="26" t="s">
+      <c r="Z18" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="AA18" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="8"/>
+      <c r="AA18" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="7"/>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="35"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="30"/>
     </row>
     <row r="20" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="11"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="10"/>
     </row>
     <row r="21" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <f t="shared" ref="C21:AD21" si="0">COUNTIF(C4:C20,"X")</f>
         <v>0</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E21" s="2">
+      <c r="G21" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="2">
+      <c r="H21" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G21" s="2">
+      <c r="L21" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21" s="2">
+      <c r="M21" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="X21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Z21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I21" s="2">
+      <c r="AD21" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="Q21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="S21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="U21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W21" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="X21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Z21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AB21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AD21" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AE21" s="5">
+      <c r="AE21" s="4">
         <f>SUM(C21:AD21)</f>
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2504,35 +2498,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J20"/>
+  <dimension ref="B3:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <f>Tiempos!AE21</f>
-        <v>48</v>
-      </c>
-      <c r="D4" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2543,7 +2537,7 @@
       <c r="C7" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2554,7 +2548,7 @@
       <c r="C8" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2565,7 +2559,7 @@
       <c r="C9" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2576,7 +2570,7 @@
       <c r="C10" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2587,7 +2581,7 @@
       <c r="C11" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2598,7 +2592,7 @@
       <c r="C12" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2609,7 +2603,7 @@
       <c r="C13" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2620,7 +2614,7 @@
       <c r="C14" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2631,7 +2625,7 @@
       <c r="C15" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2642,7 +2636,7 @@
       <c r="C16" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2664,6 +2658,21 @@
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Últimas 4 semanas.xlsx
+++ b/trunk/Últimas 4 semanas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="75">
   <si>
     <t>Lunes 6</t>
   </si>
@@ -689,6 +689,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -696,9 +699,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1006,7 +1006,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E14" sqref="E14"/>
+      <selection pane="topRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,42 +1022,42 @@
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="37" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="38" t="s">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="37" t="s">
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="40"/>
     </row>
     <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -1200,7 +1200,9 @@
         <v>45</v>
       </c>
       <c r="H5" s="19"/>
-      <c r="I5" s="27"/>
+      <c r="I5" s="35" t="s">
+        <v>72</v>
+      </c>
       <c r="J5" s="6" t="s">
         <v>45</v>
       </c>
@@ -1924,7 +1926,7 @@
       <c r="C14" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="40"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="21" t="s">
         <v>46</v>
       </c>
@@ -1952,7 +1954,7 @@
       <c r="Q14" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="R14" s="40"/>
+      <c r="R14" s="37"/>
       <c r="S14" s="21" t="s">
         <v>46</v>
       </c>
@@ -1985,7 +1987,7 @@
       <c r="C15" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="21" t="s">
         <v>46</v>
       </c>
@@ -2025,7 +2027,7 @@
       <c r="Q15" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="R15" s="40"/>
+      <c r="R15" s="37"/>
       <c r="S15" s="21" t="s">
         <v>46</v>
       </c>
@@ -2242,9 +2244,7 @@
       <c r="E18" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="34" t="s">
-        <v>72</v>
-      </c>
+      <c r="F18" s="24"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="26"/>
@@ -2299,9 +2299,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="34" t="s">
-        <v>72</v>
-      </c>
+      <c r="F19" s="24"/>
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="28"/>
@@ -2381,7 +2379,7 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="0"/>
@@ -2393,7 +2391,7 @@
       </c>
       <c r="I21" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="0"/>
@@ -2481,7 +2479,7 @@
       </c>
       <c r="AE21" s="4">
         <f>SUM(C21:AD21)</f>
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2516,7 +2514,7 @@
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="16">
         <f>Tiempos!AE21</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>57</v>
